--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1828.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1828.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.002282678079512</v>
+        <v>0.5482547283172607</v>
       </c>
       <c r="B1">
-        <v>2.312407889889843</v>
+        <v>1.760244727134705</v>
       </c>
       <c r="C1">
-        <v>2.380688474344394</v>
+        <v>4.940728187561035</v>
       </c>
       <c r="D1">
-        <v>3.073086372038283</v>
+        <v>1.690102458000183</v>
       </c>
       <c r="E1">
-        <v>1.571390926100269</v>
+        <v>0.8968498706817627</v>
       </c>
     </row>
   </sheetData>
